--- a/data_year/zb/公共管理、社会保障及其他/人民检察院直接立案侦查案件情况/人民检察院受案数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院直接立案侦查案件情况/人民检察院受案数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,798 +503,338 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6068</v>
+        <v>1313</v>
       </c>
       <c r="C2" t="n">
-        <v>1676</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="E2" t="n">
-        <v>6593</v>
+        <v>1669</v>
       </c>
       <c r="F2" t="n">
-        <v>14958</v>
+        <v>3188</v>
       </c>
       <c r="G2" t="n">
-        <v>104427</v>
+        <v>49969</v>
       </c>
       <c r="H2" t="n">
-        <v>20966</v>
+        <v>11619</v>
       </c>
       <c r="I2" t="n">
-        <v>3808</v>
+        <v>3871</v>
       </c>
       <c r="J2" t="n">
-        <v>4497</v>
+        <v>4766</v>
       </c>
       <c r="K2" t="n">
-        <v>44874</v>
+        <v>16185</v>
       </c>
       <c r="L2" t="n">
-        <v>83461</v>
+        <v>38350</v>
       </c>
       <c r="M2" t="n">
-        <v>20771</v>
+        <v>18458</v>
       </c>
       <c r="N2" t="n">
-        <v>901</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4871</v>
+        <v>951</v>
       </c>
       <c r="C3" t="n">
-        <v>1556</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="E3" t="n">
-        <v>6578</v>
+        <v>1390</v>
       </c>
       <c r="F3" t="n">
-        <v>12562</v>
+        <v>2813</v>
       </c>
       <c r="G3" t="n">
-        <v>97240</v>
+        <v>46833</v>
       </c>
       <c r="H3" t="n">
-        <v>20710</v>
+        <v>10981</v>
       </c>
       <c r="I3" t="n">
-        <v>4592</v>
+        <v>3815</v>
       </c>
       <c r="J3" t="n">
-        <v>4669</v>
+        <v>4825</v>
       </c>
       <c r="K3" t="n">
-        <v>41511</v>
+        <v>14579</v>
       </c>
       <c r="L3" t="n">
-        <v>76530</v>
+        <v>35852</v>
       </c>
       <c r="M3" t="n">
-        <v>19688</v>
+        <v>18023</v>
       </c>
       <c r="N3" t="n">
-        <v>962</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3972</v>
+        <v>878</v>
       </c>
       <c r="C4" t="n">
-        <v>1186</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="E4" t="n">
-        <v>5754</v>
+        <v>1457</v>
       </c>
       <c r="F4" t="n">
-        <v>10028</v>
+        <v>2826</v>
       </c>
       <c r="G4" t="n">
-        <v>86187</v>
+        <v>46964</v>
       </c>
       <c r="H4" t="n">
-        <v>18252</v>
+        <v>11837</v>
       </c>
       <c r="I4" t="n">
-        <v>4408</v>
+        <v>4327</v>
       </c>
       <c r="J4" t="n">
-        <v>4118</v>
+        <v>5175</v>
       </c>
       <c r="K4" t="n">
-        <v>36821</v>
+        <v>13460</v>
       </c>
       <c r="L4" t="n">
-        <v>67935</v>
+        <v>35127</v>
       </c>
       <c r="M4" t="n">
-        <v>18698</v>
+        <v>18472</v>
       </c>
       <c r="N4" t="n">
-        <v>988</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3269</v>
-      </c>
-      <c r="C5" t="n">
-        <v>93</v>
-      </c>
+        <v>1035</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="E5" t="n">
-        <v>4354</v>
+        <v>1164</v>
       </c>
       <c r="F5" t="n">
-        <v>8272</v>
+        <v>2839</v>
       </c>
       <c r="G5" t="n">
-        <v>71032</v>
-      </c>
-      <c r="H5" t="n">
-        <v>15699</v>
-      </c>
+        <v>49044</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>4047</v>
+        <v>4945</v>
       </c>
       <c r="J5" t="n">
-        <v>4029</v>
+        <v>5454</v>
       </c>
       <c r="K5" t="n">
-        <v>29276</v>
-      </c>
-      <c r="L5" t="n">
-        <v>55333</v>
-      </c>
+        <v>14381</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>16476</v>
+        <v>18885</v>
       </c>
       <c r="N5" t="n">
-        <v>1023</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3291</v>
-      </c>
-      <c r="C6" t="n">
-        <v>55</v>
-      </c>
+        <v>1601</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E6" t="n">
-        <v>3882</v>
+        <v>1583</v>
       </c>
       <c r="F6" t="n">
-        <v>7691</v>
+        <v>3067</v>
       </c>
       <c r="G6" t="n">
-        <v>68813</v>
-      </c>
-      <c r="H6" t="n">
-        <v>15395</v>
-      </c>
+        <v>63341</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>4072</v>
+        <v>6015</v>
       </c>
       <c r="J6" t="n">
-        <v>4150</v>
+        <v>5853</v>
       </c>
       <c r="K6" t="n">
-        <v>27795</v>
-      </c>
-      <c r="L6" t="n">
-        <v>53418</v>
-      </c>
+        <v>18519</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>16637</v>
+        <v>26166</v>
       </c>
       <c r="N6" t="n">
-        <v>1013</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2579</v>
-      </c>
-      <c r="C7" t="n">
-        <v>44</v>
-      </c>
+        <v>2133</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="E7" t="n">
-        <v>3274</v>
+        <v>1907</v>
       </c>
       <c r="F7" t="n">
-        <v>7013</v>
+        <v>3636</v>
       </c>
       <c r="G7" t="n">
-        <v>63053</v>
-      </c>
-      <c r="H7" t="n">
-        <v>14331</v>
-      </c>
+        <v>74169</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>4125</v>
+        <v>7046</v>
       </c>
       <c r="J7" t="n">
-        <v>4353</v>
+        <v>5871</v>
       </c>
       <c r="K7" t="n">
-        <v>24382</v>
-      </c>
-      <c r="L7" t="n">
-        <v>48722</v>
-      </c>
+        <v>21475</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>16224</v>
+        <v>31445</v>
       </c>
       <c r="N7" t="n">
-        <v>847</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2066</v>
-      </c>
-      <c r="C8" t="n">
-        <v>23</v>
-      </c>
+        <v>1938</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="E8" t="n">
-        <v>2510</v>
+        <v>1718</v>
       </c>
       <c r="F8" t="n">
-        <v>5793</v>
+        <v>3589</v>
       </c>
       <c r="G8" t="n">
-        <v>57867</v>
-      </c>
-      <c r="H8" t="n">
-        <v>12810</v>
-      </c>
+        <v>65039</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>3911</v>
+        <v>6496</v>
       </c>
       <c r="J8" t="n">
-        <v>4323</v>
+        <v>5621</v>
       </c>
       <c r="K8" t="n">
-        <v>20477</v>
-      </c>
-      <c r="L8" t="n">
-        <v>45057</v>
-      </c>
+        <v>18222</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>17889</v>
+        <v>26832</v>
       </c>
       <c r="N8" t="n">
-        <v>687</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1955</v>
-      </c>
-      <c r="C9" t="n">
-        <v>17</v>
-      </c>
+        <v>973</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="E9" t="n">
-        <v>2292</v>
+        <v>998</v>
       </c>
       <c r="F9" t="n">
-        <v>5037</v>
+        <v>2670</v>
       </c>
       <c r="G9" t="n">
-        <v>53978</v>
-      </c>
-      <c r="H9" t="n">
-        <v>12803</v>
-      </c>
+        <v>44037</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>3933</v>
+        <v>3943</v>
       </c>
       <c r="J9" t="n">
-        <v>4623</v>
+        <v>3579</v>
       </c>
       <c r="K9" t="n">
-        <v>18164</v>
-      </c>
-      <c r="L9" t="n">
-        <v>41175</v>
-      </c>
+        <v>13435</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>17264</v>
+        <v>18013</v>
       </c>
       <c r="N9" t="n">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1493</v>
-      </c>
-      <c r="C10" t="n">
-        <v>24</v>
-      </c>
-      <c r="D10" t="n">
-        <v>151</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2121</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4539</v>
-      </c>
-      <c r="G10" t="n">
-        <v>51961</v>
-      </c>
-      <c r="H10" t="n">
-        <v>12884</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4300</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4970</v>
-      </c>
-      <c r="K10" t="n">
-        <v>17102</v>
-      </c>
-      <c r="L10" t="n">
-        <v>39077</v>
-      </c>
-      <c r="M10" t="n">
-        <v>16840</v>
-      </c>
-      <c r="N10" t="n">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1519</v>
-      </c>
-      <c r="C11" t="n">
-        <v>24</v>
-      </c>
-      <c r="D11" t="n">
-        <v>157</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1926</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3910</v>
-      </c>
-      <c r="G11" t="n">
-        <v>51868</v>
-      </c>
-      <c r="H11" t="n">
-        <v>12589</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4148</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4996</v>
-      </c>
-      <c r="K11" t="n">
-        <v>17019</v>
-      </c>
-      <c r="L11" t="n">
-        <v>39279</v>
-      </c>
-      <c r="M11" t="n">
-        <v>17794</v>
-      </c>
-      <c r="N11" t="n">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1313</v>
-      </c>
-      <c r="C12" t="n">
-        <v>15</v>
-      </c>
-      <c r="D12" t="n">
-        <v>182</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1669</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3188</v>
-      </c>
-      <c r="G12" t="n">
-        <v>49969</v>
-      </c>
-      <c r="H12" t="n">
-        <v>11619</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3871</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4766</v>
-      </c>
-      <c r="K12" t="n">
-        <v>16185</v>
-      </c>
-      <c r="L12" t="n">
-        <v>38350</v>
-      </c>
-      <c r="M12" t="n">
-        <v>18458</v>
-      </c>
-      <c r="N12" t="n">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>951</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="n">
-        <v>136</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1390</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2813</v>
-      </c>
-      <c r="G13" t="n">
-        <v>46833</v>
-      </c>
-      <c r="H13" t="n">
-        <v>10981</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3815</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4825</v>
-      </c>
-      <c r="K13" t="n">
-        <v>14579</v>
-      </c>
-      <c r="L13" t="n">
-        <v>35852</v>
-      </c>
-      <c r="M13" t="n">
-        <v>18023</v>
-      </c>
-      <c r="N13" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>878</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>113</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1457</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2826</v>
-      </c>
-      <c r="G14" t="n">
-        <v>46964</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11837</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4327</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5175</v>
-      </c>
-      <c r="K14" t="n">
-        <v>13460</v>
-      </c>
-      <c r="L14" t="n">
-        <v>35127</v>
-      </c>
-      <c r="M14" t="n">
-        <v>18472</v>
-      </c>
-      <c r="N14" t="n">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1035</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>129</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1164</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2839</v>
-      </c>
-      <c r="G15" t="n">
-        <v>49044</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>4945</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5454</v>
-      </c>
-      <c r="K15" t="n">
-        <v>14381</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>18885</v>
-      </c>
-      <c r="N15" t="n">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1601</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>248</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1583</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3067</v>
-      </c>
-      <c r="G16" t="n">
-        <v>63341</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>6015</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5853</v>
-      </c>
-      <c r="K16" t="n">
-        <v>18519</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>26166</v>
-      </c>
-      <c r="N16" t="n">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2133</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>312</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1907</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3636</v>
-      </c>
-      <c r="G17" t="n">
-        <v>74169</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>7046</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5871</v>
-      </c>
-      <c r="K17" t="n">
-        <v>21475</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>31445</v>
-      </c>
-      <c r="N17" t="n">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1938</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>260</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1718</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3589</v>
-      </c>
-      <c r="G18" t="n">
-        <v>65039</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>6496</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5621</v>
-      </c>
-      <c r="K18" t="n">
-        <v>18222</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>26832</v>
-      </c>
-      <c r="N18" t="n">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>973</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>215</v>
-      </c>
-      <c r="E19" t="n">
-        <v>998</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2670</v>
-      </c>
-      <c r="G19" t="n">
-        <v>44037</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>3943</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3579</v>
-      </c>
-      <c r="K19" t="n">
-        <v>13435</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>18013</v>
-      </c>
-      <c r="N19" t="n">
         <v>211</v>
       </c>
     </row>
